--- a/Data/Presidential Election Data (2016).xlsx
+++ b/Data/Presidential Election Data (2016).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.gendron1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.gendron1\Desktop\Project_Repository\electoral_college\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Wyoming</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>Turn Out</t>
   </si>
 </sst>
 </file>
@@ -310,11 +313,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -597,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A52"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +639,7 @@
     <col min="30" max="30" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -687,4677 +689,4650 @@
         <v>65</v>
       </c>
       <c r="Q1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" t="s">
         <v>64</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>62</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>61</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
       <c r="B2">
         <v>2016</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>729547</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1318255</v>
       </c>
       <c r="F2">
         <v>9</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>75570</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>588708</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>-588708</v>
       </c>
       <c r="K2" s="3">
-        <f>I2/M2</f>
-        <v>0.2874828718792149</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L2" s="3">
-        <f>J2/M2</f>
-        <v>-0.2874828718792149</v>
-      </c>
-      <c r="M2" s="2">
-        <f>C2+E2</f>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="M2">
         <v>2047802</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>2123372</v>
       </c>
-      <c r="O2" s="2">
-        <f>D2+F2+H2</f>
+      <c r="O2">
         <v>9</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>3609447</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
+        <f>N2/P2</f>
+        <v>0.58828180604951397</v>
+      </c>
+      <c r="R2">
         <v>0.53</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2">
         <v>0.18</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>0.66</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.26</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.04</v>
-      </c>
-      <c r="X2">
-        <v>0.01</v>
       </c>
       <c r="Y2">
         <v>0.01</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>0.02</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>0.85299999999999998</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0.245</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3">
         <v>2016</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>116454</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>163387</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>38767</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>46933</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>-46933</v>
       </c>
       <c r="K3" s="3">
-        <f>I3/M3</f>
-        <v>0.16771309422136141</v>
+        <v>0.17</v>
       </c>
       <c r="L3" s="3">
-        <f>J3/M3</f>
-        <v>-0.16771309422136141</v>
-      </c>
-      <c r="M3" s="2">
-        <f>C3+E3</f>
+        <v>-0.17</v>
+      </c>
+      <c r="M3">
         <v>279841</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>318608</v>
       </c>
-      <c r="O3" s="2">
-        <f>D3+F3+H3</f>
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>522679</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q52" si="0">N3/P3</f>
+        <v>0.60956724873201329</v>
+      </c>
+      <c r="R3">
         <v>0.51</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.33</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.16</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>0.61</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.03</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.15</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.06</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.01</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.92400000000000004</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.104</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>1161167</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>1252401</v>
       </c>
       <c r="F4">
         <v>11</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>159597</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>91234</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>-91234</v>
       </c>
       <c r="K4" s="3">
-        <f>I4/M4</f>
-        <v>3.7800468020789138E-2</v>
+        <v>0.04</v>
       </c>
       <c r="L4" s="3">
-        <f>J4/M4</f>
-        <v>-3.7800468020789138E-2</v>
-      </c>
-      <c r="M4" s="2">
-        <f>C4+E4</f>
+        <v>-0.04</v>
+      </c>
+      <c r="M4">
         <v>2413568</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>2573165</v>
       </c>
-      <c r="O4" s="2">
-        <f>D4+F4+H4</f>
+      <c r="O4">
         <v>11</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>4740310</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.54282631304703699</v>
+      </c>
+      <c r="R4">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.36</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.06</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.04</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.31</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.04</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.03</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
       <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>0.02</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.86499999999999999</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.28399999999999997</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.107</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5">
         <v>2016</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>380494</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>684872</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>65269</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>304378</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>-304378</v>
       </c>
       <c r="K5" s="3">
-        <f>I5/M5</f>
-        <v>0.28570275379540927</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L5" s="3">
-        <f>J5/M5</f>
-        <v>-0.28570275379540927</v>
-      </c>
-      <c r="M5" s="2">
-        <f>C5+E5</f>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="M5">
         <v>1065366</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>1130635</v>
       </c>
-      <c r="O5" s="2">
-        <f>D5+F5+H5</f>
+      <c r="O5">
         <v>6</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>2140097</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52831016538035425</v>
+      </c>
+      <c r="R5">
         <v>0.17</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.19</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T5">
-        <v>0.35000000000000003</v>
-      </c>
       <c r="U5">
+        <v>0.35</v>
+      </c>
+      <c r="V5">
         <v>0.73</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.15</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="X5">
-        <v>0.01</v>
       </c>
       <c r="Y5">
         <v>0.01</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>0.02</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.85599999999999998</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>0.22</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6">
         <v>2016</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>8753788</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>55</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>4483810</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>943997</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>4269978</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>4269978</v>
       </c>
       <c r="K6" s="3">
-        <f>I6/M6</f>
-        <v>0.32256441085459764</v>
+        <v>0.32</v>
       </c>
       <c r="L6" s="3">
-        <f>J6/M6</f>
-        <v>0.32256441085459764</v>
-      </c>
-      <c r="M6" s="2">
-        <f>C6+E6</f>
+        <v>0.32</v>
+      </c>
+      <c r="M6">
         <v>13237598</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>14181595</v>
       </c>
-      <c r="O6" s="2">
-        <f>D6+F6+H6</f>
+      <c r="O6">
         <v>55</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <v>25104844</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56489476692227203</v>
+      </c>
+      <c r="R6">
         <v>0.08</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.13</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.26</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.54</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.38</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.05</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.39</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
       <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>0.03</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.82499999999999996</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>0.32600000000000001</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.122</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
       <c r="B7">
         <v>2016</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>1338870</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>9</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>1202484</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>238893</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>136386</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>136386</v>
       </c>
       <c r="K7" s="3">
-        <f>I7/M7</f>
-        <v>5.3666667453648724E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L7" s="3">
-        <f>J7/M7</f>
-        <v>5.3666667453648724E-2</v>
-      </c>
-      <c r="M7" s="2">
-        <f>C7+E7</f>
+        <v>0.05</v>
+      </c>
+      <c r="M7">
         <v>2541354</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>2780247</v>
       </c>
-      <c r="O7" s="2">
-        <f>D7+F7+H7</f>
+      <c r="O7">
         <v>9</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <v>3974405</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69953791825443057</v>
+      </c>
+      <c r="R7">
         <v>0.21</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.18</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.3</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.31</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.69</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.04</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.21</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>0.01</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>0.03</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>0.02</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>0.91100000000000003</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>0.39400000000000002</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8">
         <v>2016</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>897572</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>673215</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>74133</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>224357</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>224357</v>
       </c>
       <c r="K8" s="3">
-        <f>I8/M8</f>
-        <v>0.14283095034527279</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L8" s="3">
-        <f>J8/M8</f>
-        <v>0.14283095034527279</v>
-      </c>
-      <c r="M8" s="2">
-        <f>C8+E8</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M8">
         <v>1570787</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>1644920</v>
       </c>
-      <c r="O8" s="2">
-        <f>D8+F8+H8</f>
+      <c r="O8">
         <v>7</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <v>2582761</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6368843265017553</v>
+      </c>
+      <c r="R8">
         <v>0.08</v>
       </c>
-      <c r="R8">
-        <v>0.35000000000000003</v>
-      </c>
       <c r="S8">
+        <v>0.35</v>
+      </c>
+      <c r="T8">
         <v>0.45</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.11</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.68</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.1</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.16</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>0.04</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
       <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>0.02</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>0.90200000000000002</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>0.38400000000000001</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>0.17</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9">
         <v>2016</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>235603</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>185127</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>23084</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>50476</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>50476</v>
       </c>
       <c r="K9" s="3">
-        <f>I9/M9</f>
-        <v>0.11997242887362441</v>
+        <v>0.12</v>
       </c>
       <c r="L9" s="3">
-        <f>J9/M9</f>
-        <v>0.11997242887362441</v>
-      </c>
-      <c r="M9" s="2">
-        <f>C9+E9</f>
+        <v>0.12</v>
+      </c>
+      <c r="M9">
         <v>420730</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>443814</v>
       </c>
-      <c r="O9" s="2">
-        <f>D9+F9+H9</f>
+      <c r="O9">
         <v>3</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>691720</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6416093216908576</v>
+      </c>
+      <c r="R9">
         <v>0.24</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.27</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.49</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>0.63</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.21</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.09</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>0.04</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
       <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>0.03</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>0.89300000000000002</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>0.31</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.129</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
       <c r="B10">
         <v>2016</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>282830</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>12723</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>15715</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>270107</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>270107</v>
       </c>
       <c r="K10" s="3">
-        <f>I10/M10</f>
-        <v>0.91390376683708163</v>
+        <v>0.91</v>
       </c>
       <c r="L10" s="3">
-        <f>J10/M10</f>
-        <v>0.91390376683708163</v>
-      </c>
-      <c r="M10" s="2">
-        <f>C10+E10</f>
+        <v>0.91</v>
+      </c>
+      <c r="M10">
         <v>295553</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>311268</v>
       </c>
-      <c r="O10" s="2">
-        <f>D10+F10+H10</f>
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10">
         <v>515248</v>
       </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="Q10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60411297084122595</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>1</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.36</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.47</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.11</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>0.04</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
       <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>0.02</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.90300000000000002</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>0.56599999999999995</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11">
         <v>2016</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>4504975</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>4617886</v>
       </c>
       <c r="F11">
         <v>29</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>297178</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>112911</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>-112911</v>
       </c>
       <c r="K11" s="3">
-        <f>I11/M11</f>
-        <v>1.2376709455509626E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L11" s="3">
-        <f>J11/M11</f>
-        <v>-1.2376709455509626E-2</v>
-      </c>
-      <c r="M11" s="2">
-        <f>C11+E11</f>
+        <v>-0.01</v>
+      </c>
+      <c r="M11">
         <v>9122861</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>9420039</v>
       </c>
-      <c r="O11" s="2">
-        <f>D11+F11+H11</f>
+      <c r="O11">
         <v>29</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11">
         <v>14601066</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64516104509081729</v>
+      </c>
+      <c r="R11">
         <v>0.13</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.27</v>
       </c>
-      <c r="S11">
-        <v>0.35000000000000003</v>
-      </c>
       <c r="T11">
+        <v>0.35</v>
+      </c>
+      <c r="U11">
         <v>0.26</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.15</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.25</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>0.03</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
       <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
         <v>0.02</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>0.876</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>0.28499999999999998</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="B12">
         <v>2016</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>1877963</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>2089104</v>
       </c>
       <c r="F12">
         <v>16</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>147665</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>211141</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>-211141</v>
       </c>
       <c r="K12" s="3">
-        <f>I12/M12</f>
-        <v>5.3223451986064263E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L12" s="3">
-        <f>J12/M12</f>
-        <v>-5.3223451986064263E-2</v>
-      </c>
-      <c r="M12" s="2">
-        <f>C12+E12</f>
+        <v>-0.05</v>
+      </c>
+      <c r="M12">
         <v>3967067</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>4114732</v>
       </c>
-      <c r="O12" s="2">
-        <f>D12+F12+H12</f>
+      <c r="O12">
         <v>16</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12">
         <v>6959963</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59120026931177649</v>
+      </c>
+      <c r="R12">
         <v>0.31</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>0.32</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.53</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0.31</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0.09</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>0.04</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
       <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>0.02</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>0.86299999999999999</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>0.29899999999999999</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>0.114</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
       <c r="B13">
         <v>2016</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>266891</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>128847</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>33199</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>138044</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>138044</v>
       </c>
       <c r="K13" s="3">
-        <f>I13/M13</f>
-        <v>0.34882674901070909</v>
+        <v>0.35</v>
       </c>
       <c r="L13" s="3">
-        <f>J13/M13</f>
-        <v>0.34882674901070909</v>
-      </c>
-      <c r="M13" s="2">
-        <f>C13+E13</f>
+        <v>0.35</v>
+      </c>
+      <c r="M13">
         <v>395738</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>428937</v>
       </c>
-      <c r="O13" s="2">
-        <f>D13+F13+H13</f>
+      <c r="O13">
         <v>4</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13">
         <v>1012860</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42349090693679287</v>
+      </c>
+      <c r="R13">
         <v>0.23</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.22</v>
       </c>
-      <c r="S13">
-        <v>0.35000000000000003</v>
-      </c>
       <c r="T13">
+        <v>0.35</v>
+      </c>
+      <c r="U13">
         <v>0.19</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.21</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>0.01</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>0.1</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
       <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>0.38</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>0.1</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>0.2</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>0.91600000000000004</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>0.32</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>0.108</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="B14">
         <v>2016</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>189765</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>409055</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>91435</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>219290</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>-219290</v>
       </c>
       <c r="K14" s="3">
-        <f>I14/M14</f>
-        <v>0.36620353361611169</v>
+        <v>0.37</v>
       </c>
       <c r="L14" s="3">
-        <f>J14/M14</f>
-        <v>-0.36620353361611169</v>
-      </c>
-      <c r="M14" s="2">
-        <f>C14+E14</f>
+        <v>-0.37</v>
+      </c>
+      <c r="M14">
         <v>598820</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14">
         <v>690255</v>
       </c>
-      <c r="O14" s="2">
-        <f>D14+F14+H14</f>
+      <c r="O14">
         <v>4</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
         <v>1166706</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59162719656880136</v>
+      </c>
+      <c r="R14">
         <v>0.52</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>0.19</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>0.83</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0.01</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0.12</v>
-      </c>
-      <c r="X14">
-        <v>0.01</v>
       </c>
       <c r="Y14">
         <v>0.01</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
         <v>0.02</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>0.90200000000000002</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>0.26800000000000002</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
       <c r="B15">
         <v>2016</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>3090729</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>20</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>2146015</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>299680</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>944714</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>944714</v>
       </c>
       <c r="K15" s="3">
-        <f>I15/M15</f>
-        <v>0.18040102781422959</v>
+        <v>0.18</v>
       </c>
       <c r="L15" s="3">
-        <f>J15/M15</f>
-        <v>0.18040102781422959</v>
-      </c>
-      <c r="M15" s="2">
-        <f>C15+E15</f>
+        <v>0.18</v>
+      </c>
+      <c r="M15">
         <v>5236744</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15">
         <v>5536424</v>
       </c>
-      <c r="O15" s="2">
-        <f>D15+F15+H15</f>
+      <c r="O15">
         <v>20</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15">
         <v>8985443</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.61615481841017739</v>
+      </c>
+      <c r="R15">
         <v>0.42</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.36</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.22</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>0.62</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.17</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>0.05</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
       <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <v>0.02</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.88600000000000001</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.33400000000000002</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16">
         <v>2016</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>1033126</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>1557286</v>
       </c>
       <c r="F16">
         <v>11</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>144546</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>524160</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>-524160</v>
       </c>
       <c r="K16" s="3">
-        <f>I16/M16</f>
-        <v>0.20234619049016142</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="3">
-        <f>J16/M16</f>
-        <v>-0.20234619049016142</v>
-      </c>
-      <c r="M16" s="2">
-        <f>C16+E16</f>
+        <v>-0.2</v>
+      </c>
+      <c r="M16">
         <v>2590412</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16">
         <v>2734958</v>
       </c>
-      <c r="O16" s="2">
-        <f>D16+F16+H16</f>
+      <c r="O16">
         <v>11</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16">
         <v>4849937</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56391619107629642</v>
+      </c>
+      <c r="R16">
         <v>0.19</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.15</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.38</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.8</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.09</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
       <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>0.02</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
       <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
         <v>0.02</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.88300000000000001</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.253</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17">
         <v>2016</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>653669</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>800983</v>
       </c>
       <c r="F17">
         <v>6</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>111379</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>147314</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>-147314</v>
       </c>
       <c r="K17" s="3">
-        <f>I17/M17</f>
-        <v>0.10127095690240689</v>
+        <v>0.1</v>
       </c>
       <c r="L17" s="3">
-        <f>J17/M17</f>
-        <v>-0.10127095690240689</v>
-      </c>
-      <c r="M17" s="2">
-        <f>C17+E17</f>
+        <v>-0.1</v>
+      </c>
+      <c r="M17">
         <v>1454652</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17">
         <v>1566031</v>
       </c>
-      <c r="O17" s="2">
-        <f>D17+F17+H17</f>
+      <c r="O17">
         <v>6</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17">
         <v>2288536</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.68429380180167587</v>
+      </c>
+      <c r="R17">
         <v>0.37</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.27</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.33</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.02</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.87</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.03</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.06</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
       <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>0.02</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
       <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>0.02</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.91800000000000004</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.27700000000000002</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.09</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18">
         <v>2016</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>427005</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>671018</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>86379</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>244013</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <v>-244013</v>
       </c>
       <c r="K18" s="3">
-        <f>I18/M18</f>
-        <v>0.22222940685213333</v>
+        <v>0.22</v>
       </c>
       <c r="L18" s="3">
-        <f>J18/M18</f>
-        <v>-0.22222940685213333</v>
-      </c>
-      <c r="M18" s="2">
-        <f>C18+E18</f>
+        <v>-0.22</v>
+      </c>
+      <c r="M18">
         <v>1098023</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18">
         <v>1184402</v>
       </c>
-      <c r="O18" s="2">
-        <f>D18+F18+H18</f>
+      <c r="O18">
         <v>6</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18">
         <v>2054025</v>
       </c>
-      <c r="Q18">
-        <v>0.41000000000000003</v>
+      <c r="Q18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57662491936563576</v>
       </c>
       <c r="R18">
+        <v>0.41</v>
+      </c>
+      <c r="S18">
         <v>0.25</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.31</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.03</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.76</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.06</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.12</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.01</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.03</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
       <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>0.03</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.90500000000000003</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>628854</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>1202971</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>92324</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>574177</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>-574117</v>
       </c>
       <c r="K19" s="3">
-        <f>I19/M19</f>
-        <v>0.313445334570715</v>
+        <v>0.31</v>
       </c>
       <c r="L19" s="3">
-        <f>J19/M19</f>
-        <v>-0.3134125803501972</v>
-      </c>
-      <c r="M19" s="2">
-        <f>C19+E19</f>
+        <v>-0.31</v>
+      </c>
+      <c r="M19">
         <v>1831825</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19">
         <v>1924149</v>
       </c>
-      <c r="O19" s="2">
-        <f>D19+F19+H19</f>
+      <c r="O19">
         <v>8</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19">
         <v>3282420</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58619829272305191</v>
+      </c>
+      <c r="R19">
         <v>0.52</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.2</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.23</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.05</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.85</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.08</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.03</v>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
       <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
         <v>0.01</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
       <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
         <v>0.02</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.85199999999999998</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.23200000000000001</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20">
         <v>2016</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>780154</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>1178638</v>
       </c>
       <c r="F20">
         <v>8</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>70240</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>398484</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20">
         <v>-398484</v>
       </c>
       <c r="K20" s="3">
-        <f>I20/M20</f>
-        <v>0.20343354475615583</v>
+        <v>0.2</v>
       </c>
       <c r="L20" s="3">
-        <f>J20/M20</f>
-        <v>-0.20343354475615583</v>
-      </c>
-      <c r="M20" s="2">
-        <f>C20+E20</f>
+        <v>-0.2</v>
+      </c>
+      <c r="M20">
         <v>1958792</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20">
         <v>2029032</v>
       </c>
-      <c r="O20" s="2">
-        <f>D20+F20+H20</f>
+      <c r="O20">
         <v>8</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20">
         <v>3384435</v>
       </c>
-      <c r="Q20">
-        <v>0.41000000000000003</v>
+      <c r="Q20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59951867889322741</v>
       </c>
       <c r="R20">
+        <v>0.41</v>
+      </c>
+      <c r="S20">
         <v>0.3</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.2</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.09</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.59</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.32</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.05</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.01</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.02</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
       <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
         <v>0.02</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.23400000000000001</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21">
         <v>2016</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>357735</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>335593</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>54599</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>22142</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21">
         <v>22142</v>
       </c>
       <c r="K21" s="3">
-        <f>I21/M21</f>
-        <v>3.1935822583250638E-2</v>
+        <v>0.03</v>
       </c>
       <c r="L21" s="3">
-        <f>J21/M21</f>
-        <v>3.1935822583250638E-2</v>
-      </c>
-      <c r="M21" s="2">
-        <f>C21+E21</f>
+        <v>0.03</v>
+      </c>
+      <c r="M21">
         <v>693328</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21">
         <v>747927</v>
       </c>
-      <c r="O21" s="2">
-        <f>D21+F21+H21</f>
+      <c r="O21">
         <v>4</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21">
         <v>1058372</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70667685842029082</v>
+      </c>
+      <c r="R21">
         <v>0.06</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.32</v>
       </c>
-      <c r="S21">
-        <v>0.35000000000000003</v>
-      </c>
       <c r="T21">
+        <v>0.35</v>
+      </c>
+      <c r="U21">
         <v>0.27</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.94</v>
-      </c>
-      <c r="V21">
-        <v>0.02</v>
       </c>
       <c r="W21">
         <v>0.02</v>
       </c>
       <c r="X21">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Y21">
         <v>0.01</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
         <v>0.02</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.92100000000000004</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.109</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22">
         <v>2016</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>1677928</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>10</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>943169</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>160349</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22">
         <v>734759</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22">
         <v>734759</v>
       </c>
       <c r="K22" s="3">
-        <f>I22/M22</f>
-        <v>0.28032499369538783</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L22" s="3">
-        <f>J22/M22</f>
-        <v>0.28032499369538783</v>
-      </c>
-      <c r="M22" s="2">
-        <f>C22+E22</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M22">
         <v>2621097</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22">
         <v>2781446</v>
       </c>
-      <c r="O22" s="2">
-        <f>D22+F22+H22</f>
+      <c r="O22">
         <v>10</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22">
         <v>4189616</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66389043769166434</v>
+      </c>
+      <c r="R22">
         <v>0.13</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.22</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.36</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.51</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1</v>
       </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
       <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>0.06</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
       <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
         <v>0.03</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.89800000000000002</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.39</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.18</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23">
         <v>2016</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>1995196</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>11</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>1090893</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <v>238957</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23">
         <v>904303</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>904303</v>
       </c>
       <c r="K23" s="3">
-        <f>I23/M23</f>
-        <v>0.29302557379258992</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L23" s="3">
-        <f>J23/M23</f>
-        <v>0.29302557379258992</v>
-      </c>
-      <c r="M23" s="2">
-        <f>C23+E23</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M23">
         <v>3086089</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23">
         <v>3325046</v>
       </c>
-      <c r="O23" s="2">
-        <f>D23+F23+H23</f>
+      <c r="O23">
         <v>11</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23">
         <v>4948028</v>
       </c>
-      <c r="Q23">
-        <v>0.69000000000000006</v>
+      <c r="Q23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.67199417626577695</v>
       </c>
       <c r="R23">
+        <v>0.69</v>
+      </c>
+      <c r="S23">
         <v>0.25</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.06</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>0.73</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.11</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
       <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>0.06</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
       <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
         <v>0.03</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.90300000000000002</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.42099999999999999</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.187</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24">
         <v>2016</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>2268839</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>2279543</v>
       </c>
       <c r="F24">
         <v>16</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>250902</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24">
         <v>10704</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24">
         <v>-10704</v>
       </c>
       <c r="K24" s="3">
-        <f>I24/M24</f>
-        <v>2.3533643392309616E-3</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <f>J24/M24</f>
-        <v>-2.3533643392309616E-3</v>
-      </c>
-      <c r="M24" s="2">
-        <f>C24+E24</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>4548382</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24">
         <v>4799284</v>
       </c>
-      <c r="O24" s="2">
-        <f>D24+F24+H24</f>
+      <c r="O24">
         <v>16</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24">
         <v>7420628</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64674903525685423</v>
+      </c>
+      <c r="R24">
         <v>0.3</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.23</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.19</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.76</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.13</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.05</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
       <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <v>0.03</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
       <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
         <v>0.03</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.90200000000000002</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.28100000000000003</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.11</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
         <v>2016</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>1367716</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>10</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>1322951</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>254146</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <v>44765</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25">
         <v>44765</v>
       </c>
       <c r="K25" s="3">
-        <f>I25/M25</f>
-        <v>1.6637138672306904E-2</v>
+        <v>0.02</v>
       </c>
       <c r="L25" s="3">
-        <f>J25/M25</f>
-        <v>1.6637138672306904E-2</v>
-      </c>
-      <c r="M25" s="2">
-        <f>C25+E25</f>
+        <v>0.02</v>
+      </c>
+      <c r="M25">
         <v>2690667</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25">
         <v>2944813</v>
       </c>
-      <c r="O25" s="2">
-        <f>D25+F25+H25</f>
+      <c r="O25">
         <v>10</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25">
         <v>3973204</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7411683366874694</v>
+      </c>
+      <c r="R25">
         <v>0.36</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.19</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.25</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.2</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.81</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.06</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.05</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.01</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.05</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
       <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
         <v>0.03</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.34799999999999998</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>2016</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>485131</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>700714</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>23512</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
         <v>215583</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26">
         <v>-215583</v>
       </c>
       <c r="K26" s="3">
-        <f>I26/M26</f>
-        <v>0.18179694648120118</v>
+        <v>0.18</v>
       </c>
       <c r="L26" s="3">
-        <f>J26/M26</f>
-        <v>-0.18179694648120118</v>
-      </c>
-      <c r="M26" s="2">
-        <f>C26+E26</f>
+        <v>-0.18</v>
+      </c>
+      <c r="M26">
         <v>1185845</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26">
         <v>1209357</v>
       </c>
-      <c r="O26" s="2">
-        <f>D26+F26+H26</f>
+      <c r="O26">
         <v>6</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26">
         <v>2191241</v>
       </c>
-      <c r="Q26">
-        <v>0.41000000000000003</v>
+      <c r="Q26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55190506201736822</v>
       </c>
       <c r="R26">
+        <v>0.41</v>
+      </c>
+      <c r="S26">
         <v>0.19</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.31</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.09</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.56999999999999995</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.38</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.03</v>
       </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
       <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>0.01</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
       <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
         <v>0.01</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.83399999999999996</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.21299999999999999</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>2016</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>1071068</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>1594511</v>
       </c>
       <c r="F27">
         <v>10</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>143026</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27">
         <v>523443</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27">
         <v>-523443</v>
       </c>
       <c r="K27" s="3">
-        <f>I27/M27</f>
-        <v>0.19637121991132134</v>
+        <v>0.2</v>
       </c>
       <c r="L27" s="3">
-        <f>J27/M27</f>
-        <v>-0.19637121991132134</v>
-      </c>
-      <c r="M27" s="2">
-        <f>C27+E27</f>
+        <v>-0.2</v>
+      </c>
+      <c r="M27">
         <v>2665579</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27">
         <v>2808605</v>
       </c>
-      <c r="O27" s="2">
-        <f>D27+F27+H27</f>
+      <c r="O27">
         <v>10</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27">
         <v>4517925</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.62165817272309742</v>
+      </c>
+      <c r="R27">
         <v>0.65</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.06</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>0.8</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.11</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.04</v>
       </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
       <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
         <v>0.02</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
       <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
         <v>0.02</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.89200000000000002</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.28199999999999997</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.107</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28">
         <v>2016</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>177709</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>279240</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>40198</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28">
         <v>101531</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28">
         <v>-101531</v>
       </c>
       <c r="K28" s="3">
-        <f>I28/M28</f>
-        <v>0.22219328634048877</v>
+        <v>0.22</v>
       </c>
       <c r="L28" s="3">
-        <f>J28/M28</f>
-        <v>-0.22219328634048877</v>
-      </c>
-      <c r="M28" s="2">
-        <f>C28+E28</f>
+        <v>-0.22</v>
+      </c>
+      <c r="M28">
         <v>456949</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28">
         <v>497147</v>
       </c>
-      <c r="O28" s="2">
-        <f>D28+F28+H28</f>
+      <c r="O28">
         <v>3</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28">
         <v>804250</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="3">
+        <f t="shared" si="0"/>
+        <v>0.61814982903326077</v>
+      </c>
+      <c r="R28">
         <v>0.59</v>
       </c>
-      <c r="R28">
-        <v>0.41000000000000003</v>
-      </c>
       <c r="S28">
+        <v>0.41</v>
+      </c>
+      <c r="T28">
         <v>0.01</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
       <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>0.87</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
       <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
         <v>0.04</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.06</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.01</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
       <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
         <v>0.03</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.93</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.307</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29">
         <v>2016</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>284494</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>495961</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <v>63772</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29">
         <v>211467</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29">
         <v>-211467</v>
       </c>
       <c r="K29" s="3">
-        <f>I29/M29</f>
-        <v>0.27095348226355137</v>
+        <v>0.27</v>
       </c>
       <c r="L29" s="3">
-        <f>J29/M29</f>
-        <v>-0.27095348226355137</v>
-      </c>
-      <c r="M29" s="2">
-        <f>C29+E29</f>
+        <v>-0.27</v>
+      </c>
+      <c r="M29">
         <v>780455</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29">
         <v>844227</v>
       </c>
-      <c r="O29" s="2">
-        <f>D29+F29+H29</f>
+      <c r="O29">
         <v>5</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29">
         <v>1343821</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.62822875963390956</v>
+      </c>
+      <c r="R29">
         <v>0.37</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.36</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.25</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.01</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.8</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.04</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.11</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.01</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.02</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
       <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
         <v>0.02</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.90900000000000003</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.30599999999999999</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30">
         <v>2016</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>539260</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>6</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>512058</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <v>74067</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30">
         <v>27202</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30">
         <v>27202</v>
       </c>
       <c r="K30" s="3">
-        <f>I30/M30</f>
-        <v>2.5874188399703991E-2</v>
+        <v>0.03</v>
       </c>
       <c r="L30" s="3">
-        <f>J30/M30</f>
-        <v>2.5874188399703991E-2</v>
-      </c>
-      <c r="M30" s="2">
-        <f>C30+E30</f>
+        <v>0.03</v>
+      </c>
+      <c r="M30">
         <v>1051318</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30">
         <v>1125385</v>
       </c>
-      <c r="O30" s="2">
-        <f>D30+F30+H30</f>
+      <c r="O30">
         <v>6</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30">
         <v>1961587</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57371148972745023</v>
+      </c>
+      <c r="R30">
         <v>0.49</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.39</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.12</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
       <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
         <v>0.5</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.08</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.28999999999999998</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.01</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.08</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.01</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.03</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.85799999999999998</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.23699999999999999</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
       <c r="B31">
         <v>2016</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>348526</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <v>345790</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
         <v>49980</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31">
         <v>2736</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31">
         <v>2736</v>
       </c>
       <c r="K31" s="3">
-        <f>I31/M31</f>
-        <v>3.9405688476140547E-3</v>
+        <v>0</v>
       </c>
       <c r="L31" s="3">
-        <f>J31/M31</f>
-        <v>3.9405688476140547E-3</v>
-      </c>
-      <c r="M31" s="2">
-        <f>C31+E31</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>694316</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31">
         <v>744296</v>
       </c>
-      <c r="O31" s="2">
-        <f>D31+F31+H31</f>
+      <c r="O31">
         <v>4</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31">
         <v>1042795</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.71375102488983933</v>
+      </c>
+      <c r="R31">
         <v>0.36</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.17</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.39</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.08</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.91</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.01</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.03</v>
       </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
       <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
         <v>0.03</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
       <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
         <v>0.02</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.36</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
       <c r="B32">
         <v>2016</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>2148278</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>14</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <v>1601933</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
         <v>123835</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32">
         <v>546345</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32">
         <v>546345</v>
       </c>
       <c r="K32" s="3">
-        <f>I32/M32</f>
-        <v>0.14568380285802585</v>
+        <v>0.15</v>
       </c>
       <c r="L32" s="3">
-        <f>J32/M32</f>
-        <v>0.14568380285802585</v>
-      </c>
-      <c r="M32" s="2">
-        <f>C32+E32</f>
+        <v>0.15</v>
+      </c>
+      <c r="M32">
         <v>3750211</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32">
         <v>3874046</v>
       </c>
-      <c r="O32" s="2">
-        <f>D32+F32+H32</f>
+      <c r="O32">
         <v>14</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32">
         <v>6013656</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64420811566208647</v>
+      </c>
+      <c r="R32">
         <v>0.39</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>0.42</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>0.18</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
       <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.12</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.2</v>
       </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
       <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
         <v>0.1</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
       <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
         <v>0.02</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>0.89200000000000002</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>0.38100000000000001</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
       <c r="B33">
         <v>2016</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>385234</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>5</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>319667</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>93418</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33">
         <v>65567</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33">
         <v>65567</v>
       </c>
       <c r="K33" s="3">
-        <f>I33/M33</f>
-        <v>9.3015898686482218E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L33" s="3">
-        <f>J33/M33</f>
-        <v>9.3015898686482218E-2</v>
-      </c>
-      <c r="M33" s="2">
-        <f>C33+E33</f>
+        <v>0.09</v>
+      </c>
+      <c r="M33">
         <v>704901</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33">
         <v>798319</v>
       </c>
-      <c r="O33" s="2">
-        <f>D33+F33+H33</f>
+      <c r="O33">
         <v>5</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33">
         <v>1464515</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5451081074621974</v>
+      </c>
+      <c r="R33">
         <v>0.05</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.18</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.33</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.44</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.38</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.02</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.49</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.09</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.01</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
       <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
         <v>0.02</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.85</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.26900000000000002</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
       <c r="B34">
         <v>2016</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>4556124</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>29</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>2819534</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <v>345795</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34">
         <v>1736590</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34">
         <v>1736590</v>
       </c>
       <c r="K34" s="3">
-        <f>I34/M34</f>
-        <v>0.23544882368461229</v>
+        <v>0.24</v>
       </c>
       <c r="L34" s="3">
-        <f>J34/M34</f>
-        <v>0.23544882368461229</v>
-      </c>
-      <c r="M34" s="2">
-        <f>C34+E34</f>
+        <v>0.24</v>
+      </c>
+      <c r="M34">
         <v>7375658</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34">
         <v>7721453</v>
       </c>
-      <c r="O34" s="2">
-        <f>D34+F34+H34</f>
+      <c r="O34">
         <v>29</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34">
         <v>13604645</v>
       </c>
-      <c r="Q34">
-        <v>0.41000000000000003</v>
+      <c r="Q34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56756005026224499</v>
       </c>
       <c r="R34">
+        <v>0.41</v>
+      </c>
+      <c r="S34">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.26</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.05</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.19</v>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
       <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
         <v>0.08</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
       <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
         <v>0.02</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.86099999999999999</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.35299999999999998</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.154</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35">
         <v>2016</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>2189316</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>2362631</v>
       </c>
       <c r="F35">
         <v>15</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <v>189617</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35">
         <v>173315</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35">
         <v>-173315</v>
       </c>
       <c r="K35" s="3">
-        <f>I35/M35</f>
-        <v>3.8074916074374326E-2</v>
+        <v>0.04</v>
       </c>
       <c r="L35" s="3">
-        <f>J35/M35</f>
-        <v>-3.8074916074374326E-2</v>
-      </c>
-      <c r="M35" s="2">
-        <f>C35+E35</f>
+        <v>-0.04</v>
+      </c>
+      <c r="M35">
         <v>4551947</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35">
         <v>4741564</v>
       </c>
-      <c r="O35" s="2">
-        <f>D35+F35+H35</f>
+      <c r="O35">
         <v>15</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35">
         <v>7352501</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64489130977336828</v>
+      </c>
+      <c r="R35">
         <v>0.13</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.09</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.25</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.53</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.64</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.21</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.09</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.01</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.03</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
       <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
         <v>0.02</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.86899999999999999</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.29899999999999999</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.106</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>16</v>
       </c>
       <c r="B36">
         <v>2016</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>93758</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>216794</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <v>33808</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36">
         <v>123036</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36">
         <v>-123036</v>
       </c>
       <c r="K36" s="3">
-        <f>I36/M36</f>
-        <v>0.39618485793039493</v>
+        <v>0.4</v>
       </c>
       <c r="L36" s="3">
-        <f>J36/M36</f>
-        <v>-0.39618485793039493</v>
-      </c>
-      <c r="M36" s="2">
-        <f>C36+E36</f>
+        <v>-0.4</v>
+      </c>
+      <c r="M36">
         <v>310552</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36">
         <v>344360</v>
       </c>
-      <c r="O36" s="2">
-        <f>D36+F36+H36</f>
+      <c r="O36">
         <v>3</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36">
         <v>566783</v>
       </c>
-      <c r="Q36">
-        <v>0.14000000000000001</v>
+      <c r="Q36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6075693872257989</v>
       </c>
       <c r="R36">
         <v>0.14000000000000001</v>
       </c>
       <c r="S36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T36">
         <v>0.15</v>
       </c>
-      <c r="T36">
-        <v>0.57000000000000006</v>
-      </c>
       <c r="U36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V36">
         <v>0.85</v>
-      </c>
-      <c r="V36">
-        <v>0.03</v>
       </c>
       <c r="W36">
         <v>0.03</v>
       </c>
       <c r="X36">
+        <v>0.03</v>
+      </c>
+      <c r="Y36">
         <v>0.06</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>0.01</v>
       </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
       <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
         <v>0.02</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>0.92300000000000004</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>0.28899999999999998</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
       <c r="B37">
         <v>2016</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>2394164</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
+      <c r="E37">
         <v>2841005</v>
       </c>
       <c r="F37">
         <v>18</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>261318</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37">
         <v>446841</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37">
         <v>-446841</v>
       </c>
       <c r="K37" s="3">
-        <f>I37/M37</f>
-        <v>8.5353691542718102E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L37" s="3">
-        <f>J37/M37</f>
-        <v>-8.5353691542718102E-2</v>
-      </c>
-      <c r="M37" s="2">
-        <f>C37+E37</f>
+        <v>-0.09</v>
+      </c>
+      <c r="M37">
         <v>5235169</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37">
         <v>5496487</v>
       </c>
-      <c r="O37" s="2">
-        <f>D37+F37+H37</f>
+      <c r="O37">
         <v>18</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37">
         <v>8736808</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.62911843776354015</v>
+      </c>
+      <c r="R37">
         <v>0.26</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.33</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.12</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.8</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.12</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.04</v>
       </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
       <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
         <v>0.02</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
       <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
         <v>0.03</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>0.89800000000000002</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>0.27200000000000002</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
       <c r="B38">
         <v>2016</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>420375</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2">
+      <c r="E38">
         <v>949136</v>
       </c>
       <c r="F38">
         <v>7</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <v>83481</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38">
         <v>528761</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38">
         <v>-528761</v>
       </c>
       <c r="K38" s="3">
-        <f>I38/M38</f>
-        <v>0.38609474476656264</v>
+        <v>0.39</v>
       </c>
       <c r="L38" s="3">
-        <f>J38/M38</f>
-        <v>-0.38609474476656264</v>
-      </c>
-      <c r="M38" s="2">
-        <f>C38+E38</f>
+        <v>-0.39</v>
+      </c>
+      <c r="M38">
         <v>1369511</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38">
         <v>1452992</v>
       </c>
-      <c r="O38" s="2">
-        <f>D38+F38+H38</f>
+      <c r="O38">
         <v>7</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38">
         <v>2778219</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52299404762547519</v>
+      </c>
+      <c r="R38">
         <v>0.44</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.23</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.32</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.01</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.66</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.1</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.02</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
       <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.875</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.248</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39">
         <v>2016</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>1002106</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>7</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>782403</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <v>216827</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39">
         <v>219703</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39">
         <v>219703</v>
       </c>
       <c r="K39" s="3">
-        <f>I39/M39</f>
-        <v>0.12311677890108708</v>
+        <v>0.12</v>
       </c>
       <c r="L39" s="3">
-        <f>J39/M39</f>
-        <v>0.12311677890108708</v>
-      </c>
-      <c r="M39" s="2">
-        <f>C39+E39</f>
+        <v>0.12</v>
+      </c>
+      <c r="M39">
         <v>1784509</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39">
         <v>2001336</v>
       </c>
-      <c r="O39" s="2">
-        <f>D39+F39+H39</f>
+      <c r="O39">
         <v>7</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39">
         <v>3024174</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66177938174192363</v>
+      </c>
+      <c r="R39">
         <v>0.28999999999999998</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>0.21</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>0.24</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>0.26</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.76</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.02</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.13</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>0.01</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>0.04</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
       <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
         <v>0.04</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>0.90200000000000002</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>0.122</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40">
         <v>2016</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>2926441</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2">
+      <c r="E40">
         <v>2970733</v>
       </c>
       <c r="F40">
         <v>20</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>268304</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40">
         <v>44292</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40">
         <v>-44292</v>
       </c>
       <c r="K40" s="3">
-        <f>I40/M40</f>
-        <v>7.5107161498032789E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L40" s="3">
-        <f>J40/M40</f>
-        <v>-7.5107161498032789E-3</v>
-      </c>
-      <c r="M40" s="2">
-        <f>C40+E40</f>
+        <v>-0.01</v>
+      </c>
+      <c r="M40">
         <v>5897174</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40">
         <v>6165478</v>
       </c>
-      <c r="O40" s="2">
-        <f>D40+F40+H40</f>
+      <c r="O40">
         <v>20</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40">
         <v>9691160</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63619607972626602</v>
+      </c>
+      <c r="R40">
         <v>0.23</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>0.31</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>0.25</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>0.21</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>0.77</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0.1</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
       <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
         <v>0.03</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
       <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
         <v>0.02</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>0.89900000000000002</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>0.30099999999999999</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41">
         <v>2016</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>252525</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>180543</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>31076</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41">
         <v>71982</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41">
         <v>71982</v>
       </c>
       <c r="K41" s="3">
-        <f>I41/M41</f>
-        <v>0.16621408185319628</v>
+        <v>0.17</v>
       </c>
       <c r="L41" s="3">
-        <f>J41/M41</f>
-        <v>0.16621408185319628</v>
-      </c>
-      <c r="M41" s="2">
-        <f>C41+E41</f>
+        <v>0.17</v>
+      </c>
+      <c r="M41">
         <v>433068</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41">
         <v>464144</v>
       </c>
-      <c r="O41" s="2">
-        <f>D41+F41+H41</f>
+      <c r="O41">
         <v>4</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41">
         <v>786012</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59050497956774195</v>
+      </c>
+      <c r="R41">
         <v>0.08</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>0.31</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>0.22</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>0.39</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.73</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.06</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.15</v>
       </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
       <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
         <v>0.03</v>
       </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
       <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
         <v>0.03</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>0.873</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>0.33</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
       <c r="B42">
         <v>2016</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>855373</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2">
+      <c r="E42">
         <v>1155389</v>
       </c>
       <c r="F42">
         <v>9</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
         <v>92265</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42">
         <v>300016</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42">
         <v>-300016</v>
       </c>
       <c r="K42" s="3">
-        <f>I42/M42</f>
-        <v>0.1492051272104804</v>
+        <v>0.15</v>
       </c>
       <c r="L42" s="3">
-        <f>J42/M42</f>
-        <v>-0.1492051272104804</v>
-      </c>
-      <c r="M42" s="2">
-        <f>C42+E42</f>
+        <v>-0.15</v>
+      </c>
+      <c r="M42">
         <v>2010762</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42">
         <v>2103027</v>
       </c>
-      <c r="O42" s="2">
-        <f>D42+F42+H42</f>
+      <c r="O42">
         <v>9</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42">
         <v>3709283</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56696321094939373</v>
+      </c>
+      <c r="R42">
         <v>0.4</v>
       </c>
-      <c r="R42">
-        <v>0.41000000000000003</v>
-      </c>
       <c r="S42">
+        <v>0.41</v>
+      </c>
+      <c r="T42">
         <v>0.18</v>
       </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
       <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
         <v>0.64</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.27</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.05</v>
       </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
       <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
         <v>0.02</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
       <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
         <v>0.02</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>0.86499999999999999</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>0.27</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43">
         <v>2016</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>117458</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2">
+      <c r="E43">
         <v>227721</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43">
         <v>24914</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43">
         <v>110263</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43">
         <v>-110263</v>
       </c>
       <c r="K43" s="3">
-        <f>I43/M43</f>
-        <v>0.31943716158862501</v>
+        <v>0.32</v>
       </c>
       <c r="L43" s="3">
-        <f>J43/M43</f>
-        <v>-0.31943716158862501</v>
-      </c>
-      <c r="M43" s="2">
-        <f>C43+E43</f>
+        <v>-0.32</v>
+      </c>
+      <c r="M43">
         <v>345179</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43">
         <v>370093</v>
       </c>
-      <c r="O43" s="2">
-        <f>D43+F43+H43</f>
+      <c r="O43">
         <v>3</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43">
         <v>631173</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.58635746459370097</v>
+      </c>
+      <c r="R43">
         <v>0.65</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>0.19</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>0.16</v>
       </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
       <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
         <v>0.83</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.01</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.04</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>0.09</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>0.02</v>
       </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
       <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
         <v>0.02</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>0.91400000000000003</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>0.27800000000000002</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44">
         <v>2016</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>870695</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2">
+      <c r="E44">
         <v>1522925</v>
       </c>
       <c r="F44">
         <v>11</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44">
         <v>114407</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44">
         <v>652230</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44">
         <v>-652230</v>
       </c>
       <c r="K44" s="3">
-        <f>I44/M44</f>
-        <v>0.27248686090523977</v>
+        <v>0.27</v>
       </c>
       <c r="L44" s="3">
-        <f>J44/M44</f>
-        <v>-0.27248686090523977</v>
-      </c>
-      <c r="M44" s="2">
-        <f>C44+E44</f>
+        <v>-0.27</v>
+      </c>
+      <c r="M44">
         <v>2393620</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44">
         <v>2508027</v>
       </c>
-      <c r="O44" s="2">
-        <f>D44+F44+H44</f>
+      <c r="O44">
         <v>11</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44">
         <v>4909426</v>
       </c>
-      <c r="Q44">
-        <v>0.41000000000000003</v>
+      <c r="Q44" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51085951799660489</v>
       </c>
       <c r="R44">
+        <v>0.41</v>
+      </c>
+      <c r="S44">
         <v>0.31</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
       <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
         <v>0.74</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.16</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.05</v>
       </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
       <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
         <v>0.02</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
       <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
         <v>0.02</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>0.86499999999999999</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45">
         <v>2016</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>3877868</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
+      <c r="E45">
         <v>4685047</v>
       </c>
       <c r="F45">
         <v>36</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45">
         <v>406311</v>
       </c>
       <c r="H45">
         <v>2</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45">
         <v>807179</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45">
         <v>-807179</v>
       </c>
       <c r="K45" s="3">
-        <f>I45/M45</f>
-        <v>9.4264511559439754E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L45" s="3">
-        <f>J45/M45</f>
-        <v>-9.4264511559439754E-2</v>
-      </c>
-      <c r="M45" s="2">
-        <f>C45+E45</f>
+        <v>-0.09</v>
+      </c>
+      <c r="M45">
         <v>8562915</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45">
         <v>8969226</v>
       </c>
-      <c r="O45" s="2">
-        <f>D45+F45+H45</f>
+      <c r="O45">
         <v>38</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45">
         <v>17448910</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="3">
+        <f t="shared" si="0"/>
+        <v>0.51402786764330843</v>
+      </c>
+      <c r="R45">
         <v>0.21</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>0.17</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>0.34</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>0.27</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.43</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.12</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.39</v>
       </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
       <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
         <v>0.05</v>
       </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
       <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
         <v>0.02</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>0.82799999999999996</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>0.28699999999999998</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46">
         <v>2016</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>310676</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
+      <c r="E46">
         <v>515231</v>
       </c>
       <c r="F46">
         <v>6</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46">
         <v>305523</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46">
         <v>204555</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46">
         <v>-204555</v>
       </c>
       <c r="K46" s="3">
-        <f>I46/M46</f>
-        <v>0.24767316416981572</v>
+        <v>0.25</v>
       </c>
       <c r="L46" s="3">
-        <f>J46/M46</f>
-        <v>-0.24767316416981572</v>
-      </c>
-      <c r="M46" s="2">
-        <f>C46+E46</f>
+        <v>-0.25</v>
+      </c>
+      <c r="M46">
         <v>825907</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46">
         <v>1131430</v>
       </c>
-      <c r="O46" s="2">
-        <f>D46+F46+H46</f>
+      <c r="O46">
         <v>6</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46">
         <v>1991885</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56801974009543721</v>
+      </c>
+      <c r="R46">
         <v>0.21</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>0.19</v>
       </c>
-      <c r="S46">
-        <v>0.41000000000000003</v>
-      </c>
       <c r="T46">
+        <v>0.41</v>
+      </c>
+      <c r="U46">
         <v>0.19</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.79</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.01</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>0.01</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>0.02</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>0.01</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>0.02</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>0.91800000000000004</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>0.11</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47">
         <v>2016</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>178573</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47">
         <v>95369</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
         <v>41125</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47">
         <v>83204</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47">
         <v>83204</v>
       </c>
       <c r="K47" s="3">
-        <f>I47/M47</f>
-        <v>0.30372852647640741</v>
+        <v>0.3</v>
       </c>
       <c r="L47" s="3">
-        <f>J47/M47</f>
-        <v>0.30372852647640741</v>
-      </c>
-      <c r="M47" s="2">
-        <f>C47+E47</f>
+        <v>0.3</v>
+      </c>
+      <c r="M47">
         <v>273942</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47">
         <v>315067</v>
       </c>
-      <c r="O47" s="2">
-        <f>D47+F47+H47</f>
+      <c r="O47">
         <v>3</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47">
         <v>494871</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="3">
+        <f t="shared" si="0"/>
+        <v>0.63666490863275482</v>
+      </c>
+      <c r="R47">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>0.22</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>0.34</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>0.17</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.94</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.01</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.02</v>
-      </c>
-      <c r="X47">
-        <v>0.01</v>
       </c>
       <c r="Y47">
         <v>0.01</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
         <v>0.02</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>0.92300000000000004</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>0.36799999999999999</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>0.15</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
       <c r="B48">
         <v>2016</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>1981473</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>13</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48">
         <v>1769443</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48">
         <v>233715</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48">
         <v>212030</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48">
         <v>212030</v>
       </c>
       <c r="K48" s="3">
-        <f>I48/M48</f>
-        <v>5.6527525543094009E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L48" s="3">
-        <f>J48/M48</f>
-        <v>5.6527525543094009E-2</v>
-      </c>
-      <c r="M48" s="2">
-        <f>C48+E48</f>
+        <v>0.06</v>
+      </c>
+      <c r="M48">
         <v>3750916</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48">
         <v>3984631</v>
       </c>
-      <c r="O48" s="2">
-        <f>D48+F48+H48</f>
+      <c r="O48">
         <v>13</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48">
         <v>6027152</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66111340812377062</v>
+      </c>
+      <c r="R48">
         <v>0.79</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>0.21</v>
       </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
       <c r="T48">
         <v>0</v>
       </c>
       <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
         <v>0.62</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.19</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>0.09</v>
       </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
       <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
         <v>0.06</v>
       </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
       <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
         <v>0.03</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>0.89</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>0.376</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>0.161</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49">
         <v>2016</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>1742718</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>8</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49">
         <v>1221747</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49">
         <v>352554</v>
       </c>
       <c r="H49">
         <v>4</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49">
         <v>520971</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49">
         <v>520971</v>
       </c>
       <c r="K49" s="3">
-        <f>I49/M49</f>
-        <v>0.17573862400129533</v>
+        <v>0.18</v>
       </c>
       <c r="L49" s="3">
-        <f>J49/M49</f>
-        <v>0.17573862400129533</v>
-      </c>
-      <c r="M49" s="2">
-        <f>C49+E49</f>
+        <v>0.18</v>
+      </c>
+      <c r="M49">
         <v>2964465</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49">
         <v>3317019</v>
       </c>
-      <c r="O49" s="2">
-        <f>D49+F49+H49</f>
+      <c r="O49">
         <v>12</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49">
         <v>5123020</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6474733653196747</v>
+      </c>
+      <c r="R49">
         <v>0.2</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>0.22</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>0.39</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>0.19</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0.69</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.03</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.12</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>0.01</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>0.08</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>0.01</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>0.05</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>0.90800000000000003</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>0.34499999999999997</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>0.127</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50">
         <v>2016</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>188794</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2">
+      <c r="E50">
         <v>489371</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50">
         <v>36258</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50">
         <v>300577</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50">
         <v>-300577</v>
       </c>
       <c r="K50" s="3">
-        <f>I50/M50</f>
-        <v>0.44322104502591553</v>
+        <v>0.44</v>
       </c>
       <c r="L50" s="3">
-        <f>J50/M50</f>
-        <v>-0.44322104502591553</v>
-      </c>
-      <c r="M50" s="2">
-        <f>C50+E50</f>
+        <v>-0.44</v>
+      </c>
+      <c r="M50">
         <v>678165</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50">
         <v>714423</v>
       </c>
-      <c r="O50" s="2">
-        <f>D50+F50+H50</f>
+      <c r="O50">
         <v>5</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50">
         <v>1423031</v>
       </c>
-      <c r="Q50">
-        <v>0.41000000000000003</v>
+      <c r="Q50" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5020431740418867</v>
       </c>
       <c r="R50">
+        <v>0.41</v>
+      </c>
+      <c r="S50">
         <v>0.27</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>0.19</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>0.13</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>0.92</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.03</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.01</v>
       </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
       <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
         <v>0.01</v>
       </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
       <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
         <v>0.02</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>0.85899999999999999</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>0.19900000000000001</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="B51">
         <v>2016</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>1382536</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2">
+      <c r="E51">
         <v>1405284</v>
       </c>
       <c r="F51">
         <v>10</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51">
         <v>188330</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51">
         <v>22748</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51">
         <v>-22748</v>
       </c>
       <c r="K51" s="3">
-        <f>I51/M51</f>
-        <v>8.1597807605942995E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L51" s="3">
-        <f>J51/M51</f>
-        <v>-8.1597807605942995E-3</v>
-      </c>
-      <c r="M51" s="2">
-        <f>C51+E51</f>
+        <v>-0.01</v>
+      </c>
+      <c r="M51">
         <v>2787820</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51">
         <v>2976150</v>
       </c>
-      <c r="O51" s="2">
-        <f>D51+F51+H51</f>
+      <c r="O51">
         <v>10</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51">
         <v>4285071</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69453925034147623</v>
+      </c>
+      <c r="R51">
         <v>0.64</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>0.36</v>
       </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
       <c r="T51">
         <v>0</v>
       </c>
       <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
         <v>0.82</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.06</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>0.01</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>0.03</v>
       </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
       <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
         <v>0.02</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>0.91700000000000004</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52">
         <v>2016</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>55973</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2">
+      <c r="E52">
         <v>174419</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52">
         <v>25457</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52">
         <v>118446</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52">
         <v>-118446</v>
       </c>
       <c r="K52" s="3">
-        <f>I52/M52</f>
-        <v>0.51410639258307578</v>
+        <v>0.51</v>
       </c>
       <c r="L52" s="3">
-        <f>J52/M52</f>
-        <v>-0.51410639258307578</v>
-      </c>
-      <c r="M52" s="2">
-        <f>C52+E52</f>
+        <v>-0.51</v>
+      </c>
+      <c r="M52">
         <v>230392</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52">
         <v>255849</v>
       </c>
-      <c r="O52" s="2">
-        <f>D52+F52+H52</f>
+      <c r="O52">
         <v>3</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52">
         <v>429682</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59543802160667658</v>
+      </c>
+      <c r="R52">
         <v>0.66</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>0.34</v>
       </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
       <c r="T52">
         <v>0</v>
       </c>
       <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
         <v>0.85</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.01</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.1</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>0.02</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>0.01</v>
       </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
       <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
         <v>0.02</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>0.92800000000000005</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
